--- a/ig/sd-examples/ValueSet-eclaire-reglementation-precision-vs.xlsx
+++ b/ig/sd-examples/ValueSet-eclaire-reglementation-precision-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T12:28:59+00:00</t>
+    <t>2023-12-04T13:32:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-examples/ValueSet-eclaire-reglementation-precision-vs.xlsx
+++ b/ig/sd-examples/ValueSet-eclaire-reglementation-precision-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T13:32:35+00:00</t>
+    <t>2023-12-04T15:32:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-examples/ValueSet-eclaire-reglementation-precision-vs.xlsx
+++ b/ig/sd-examples/ValueSet-eclaire-reglementation-precision-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T15:32:48+00:00</t>
+    <t>2023-12-04T18:12:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
